--- a/code_smell_changes.xlsx
+++ b/code_smell_changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,239 +449,570 @@
           <t>Code Smell_april</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Code Smell Difference</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9951</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>9974</v>
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>987</v>
+        <v>122</v>
       </c>
       <c r="C3" t="n">
-        <v>994</v>
+        <v>173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-angular-sko-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4924</v>
+        <v>596</v>
       </c>
       <c r="C4" t="n">
-        <v>4925</v>
+        <v>1490</v>
+      </c>
+      <c r="D4" t="n">
+        <v>894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12108</v>
+        <v>1489</v>
       </c>
       <c r="C5" t="n">
-        <v>12113</v>
+        <v>596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12641</v>
+        <v>1489</v>
       </c>
       <c r="C6" t="n">
-        <v>12643</v>
+        <v>1490</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15131</v>
+        <v>9951</v>
       </c>
       <c r="C7" t="n">
-        <v>15137</v>
+        <v>9974</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9897</v>
+        <v>14087</v>
       </c>
       <c r="C8" t="n">
-        <v>9914</v>
+        <v>13906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>642</v>
+        <v>1827</v>
       </c>
       <c r="C9" t="n">
-        <v>648</v>
+        <v>1802</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571</v>
+        <v>2190</v>
       </c>
       <c r="C10" t="n">
-        <v>507</v>
+        <v>4489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l3-laravel-vicafe-erp</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3329</v>
+        <v>2943</v>
       </c>
       <c r="C11" t="n">
-        <v>3373</v>
+        <v>2945</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650</v>
+        <v>987</v>
       </c>
       <c r="C12" t="n">
-        <v>662</v>
+        <v>994</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2098</v>
+        <v>2402</v>
       </c>
       <c r="C13" t="n">
-        <v>2100</v>
+        <v>2404</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338</v>
+        <v>2721</v>
       </c>
       <c r="C14" t="n">
-        <v>345</v>
+        <v>2649</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-angular-sko-business</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3963</v>
+        <v>4924</v>
       </c>
       <c r="C15" t="n">
-        <v>3924</v>
+        <v>4925</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5964</v>
+        <v>12108</v>
       </c>
       <c r="C16" t="n">
-        <v>5987</v>
+        <v>12113</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13707</v>
+        <v>12641</v>
       </c>
       <c r="C17" t="n">
-        <v>13708</v>
+        <v>12643</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5697</v>
+        <v>15131</v>
       </c>
       <c r="C18" t="n">
-        <v>5711</v>
+        <v>15137</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>l3-angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9897</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9914</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>642</v>
+      </c>
+      <c r="C20" t="n">
+        <v>648</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>571</v>
+      </c>
+      <c r="C21" t="n">
+        <v>507</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>l3-laravel-vicafe-erp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3329</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3373</v>
+      </c>
+      <c r="D22" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>l3-net-business-ontrex</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>650</v>
+      </c>
+      <c r="C24" t="n">
+        <v>662</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>l3-net-finsy-business</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2098</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>375</v>
+      </c>
+      <c r="C26" t="n">
+        <v>229</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>229</v>
+      </c>
+      <c r="C27" t="n">
+        <v>375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1628</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1586</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>l3-net-lunge-business</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>338</v>
+      </c>
+      <c r="C30" t="n">
+        <v>345</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3963</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C32" t="n">
+        <v>589</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-941</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5964</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5987</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13707</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13708</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5697</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5711</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B36" t="n">
         <v>2325</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C36" t="n">
         <v>2327</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
